--- a/HybridRediff/Files/StockSuite.xlsx
+++ b/HybridRediff/Files/StockSuite.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B85BC23-660E-4F26-8193-07EAD28313FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3704B4BE-7F3C-4E75-83E2-100C5186C332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -76,70 +76,73 @@
     <t>waitForPageToLoad</t>
   </si>
   <si>
+    <t>Stock Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>PurchasePrice</t>
+  </si>
+  <si>
+    <t>addStock</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>5/03/2018</t>
+  </si>
+  <si>
+    <t>deleteStock</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>buySellStock</t>
+  </si>
+  <si>
+    <t>BuyOrSellStockTest</t>
+  </si>
+  <si>
+    <t>Tata Steel Ltd.</t>
+  </si>
+  <si>
+    <t>CheckTransactionHistoryTest</t>
+  </si>
+  <si>
+    <t>checkHistory</t>
+  </si>
+  <si>
+    <t>Reliance Inds.</t>
+  </si>
+  <si>
+    <t>Tata Steel Ltd</t>
+  </si>
+  <si>
+    <t>PKTestProf</t>
+  </si>
+  <si>
+    <t>5/12/2018</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Stock Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>PurchasePrice</t>
-  </si>
-  <si>
-    <t>addStock</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>5/03/2018</t>
-  </si>
-  <si>
-    <t>deleteStock</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>buySellStock</t>
-  </si>
-  <si>
-    <t>BuyOrSellStockTest</t>
-  </si>
-  <si>
-    <t>Tata Steel Ltd.</t>
-  </si>
-  <si>
-    <t>CheckTransactionHistoryTest</t>
-  </si>
-  <si>
-    <t>checkHistory</t>
-  </si>
-  <si>
-    <t>Reliance Inds.</t>
-  </si>
-  <si>
-    <t>Tata Steel Ltd</t>
-  </si>
-  <si>
-    <t>PKTestProf</t>
-  </si>
-  <si>
-    <t>5/12/2018</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>Buy</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -584,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,23 +617,23 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +754,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -831,7 +834,7 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -839,7 +842,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -853,7 +856,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -867,7 +870,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -879,7 +882,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -895,7 +898,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -907,11 +910,11 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -919,7 +922,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
@@ -933,7 +936,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -947,7 +950,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
@@ -959,7 +962,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
@@ -975,7 +978,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
@@ -987,11 +990,11 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1007,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,16 +1042,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1056,22 +1059,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -1098,18 +1101,18 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1120,19 +1123,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
@@ -1143,30 +1146,30 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1177,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -1188,13 +1191,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
